--- a/LR3/table_1_57.xlsx
+++ b/LR3/table_1_57.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\111\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -234,26 +234,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,37 +556,37 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -596,7 +594,7 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="5">
@@ -636,7 +634,7 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="5">
@@ -651,9 +649,11 @@
         <v>4357.6500000000005</v>
       </c>
       <c r="F4" s="6">
+        <f>F3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="6">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="5">
@@ -661,6 +661,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="7">
+        <f>I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="5">
@@ -676,7 +677,7 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="5">
@@ -691,9 +692,11 @@
         <v>4326.3</v>
       </c>
       <c r="F5" s="6">
+        <f t="shared" ref="F5:F38" si="5">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="6">
+        <f t="shared" ref="G5:G38" si="6">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="5">
@@ -701,6 +704,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="7">
+        <f t="shared" ref="I5:I38" si="7">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="5">
@@ -716,7 +720,7 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="5">
@@ -731,9 +735,11 @@
         <v>4294.95</v>
       </c>
       <c r="F6" s="6">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G6" s="6">
+        <f t="shared" si="6"/>
         <v>44808</v>
       </c>
       <c r="H6" s="5">
@@ -741,6 +747,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J6" s="5">
@@ -756,7 +763,7 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="5">
@@ -771,9 +778,11 @@
         <v>4263.6000000000004</v>
       </c>
       <c r="F7" s="6">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G7" s="6">
+        <f t="shared" si="6"/>
         <v>44809</v>
       </c>
       <c r="H7" s="5">
@@ -781,6 +790,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J7" s="5">
@@ -796,7 +806,7 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="5">
@@ -811,9 +821,11 @@
         <v>4232.25</v>
       </c>
       <c r="F8" s="6">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G8" s="6">
+        <f t="shared" si="6"/>
         <v>44810</v>
       </c>
       <c r="H8" s="5">
@@ -821,6 +833,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J8" s="5">
@@ -836,7 +849,7 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="5">
@@ -851,9 +864,11 @@
         <v>4200.9000000000005</v>
       </c>
       <c r="F9" s="6">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G9" s="6">
+        <f t="shared" si="6"/>
         <v>44811</v>
       </c>
       <c r="H9" s="5">
@@ -861,6 +876,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J9" s="5">
@@ -876,7 +892,7 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="5">
@@ -891,9 +907,11 @@
         <v>4169.55</v>
       </c>
       <c r="F10" s="6">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G10" s="6">
+        <f t="shared" si="6"/>
         <v>44812</v>
       </c>
       <c r="H10" s="5">
@@ -901,6 +919,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J10" s="5">
@@ -916,7 +935,7 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="5">
@@ -931,9 +950,11 @@
         <v>4138.2</v>
       </c>
       <c r="F11" s="6">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G11" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="H11" s="5">
@@ -941,6 +962,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J11" s="5">
@@ -956,7 +978,7 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="5">
@@ -971,9 +993,11 @@
         <v>4106.8500000000004</v>
       </c>
       <c r="F12" s="6">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G12" s="6">
+        <f t="shared" si="6"/>
         <v>44814</v>
       </c>
       <c r="H12" s="5">
@@ -981,6 +1005,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J12" s="5">
@@ -996,7 +1021,7 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="5">
@@ -1011,9 +1036,11 @@
         <v>4075.5</v>
       </c>
       <c r="F13" s="6">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G13" s="6">
+        <f t="shared" si="6"/>
         <v>44815</v>
       </c>
       <c r="H13" s="5">
@@ -1021,6 +1048,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J13" s="5">
@@ -1036,7 +1064,7 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="5">
@@ -1051,9 +1079,11 @@
         <v>4044.15</v>
       </c>
       <c r="F14" s="6">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G14" s="6">
+        <f t="shared" si="6"/>
         <v>44816</v>
       </c>
       <c r="H14" s="5">
@@ -1061,6 +1091,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J14" s="5">
@@ -1076,7 +1107,7 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="5">
@@ -1091,9 +1122,11 @@
         <v>4012.8</v>
       </c>
       <c r="F15" s="6">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G15" s="6">
+        <f t="shared" si="6"/>
         <v>44817</v>
       </c>
       <c r="H15" s="5">
@@ -1101,6 +1134,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J15" s="5">
@@ -1116,7 +1150,7 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="5">
@@ -1131,9 +1165,11 @@
         <v>3981.4500000000003</v>
       </c>
       <c r="F16" s="6">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G16" s="6">
+        <f t="shared" si="6"/>
         <v>44818</v>
       </c>
       <c r="H16" s="5">
@@ -1141,6 +1177,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J16" s="5">
@@ -1156,7 +1193,7 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="5">
@@ -1171,9 +1208,11 @@
         <v>3950.1000000000004</v>
       </c>
       <c r="F17" s="6">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G17" s="6">
+        <f t="shared" si="6"/>
         <v>44819</v>
       </c>
       <c r="H17" s="5">
@@ -1181,6 +1220,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J17" s="5">
@@ -1196,7 +1236,7 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="5">
@@ -1211,9 +1251,11 @@
         <v>3918.75</v>
       </c>
       <c r="F18" s="6">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G18" s="6">
+        <f t="shared" si="6"/>
         <v>44820</v>
       </c>
       <c r="H18" s="5">
@@ -1221,6 +1263,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J18" s="5">
@@ -1236,7 +1279,7 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="5">
@@ -1251,9 +1294,11 @@
         <v>3887.4</v>
       </c>
       <c r="F19" s="6">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G19" s="6">
+        <f t="shared" si="6"/>
         <v>44821</v>
       </c>
       <c r="H19" s="5">
@@ -1261,6 +1306,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J19" s="5">
@@ -1276,7 +1322,7 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="5">
@@ -1291,9 +1337,11 @@
         <v>3856.05</v>
       </c>
       <c r="F20" s="6">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G20" s="6">
+        <f t="shared" si="6"/>
         <v>44822</v>
       </c>
       <c r="H20" s="5">
@@ -1301,6 +1349,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J20" s="5">
@@ -1316,7 +1365,7 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="5">
@@ -1331,9 +1380,11 @@
         <v>3824.7000000000003</v>
       </c>
       <c r="F21" s="6">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G21" s="6">
+        <f t="shared" si="6"/>
         <v>44823</v>
       </c>
       <c r="H21" s="5">
@@ -1341,6 +1392,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J21" s="5">
@@ -1356,7 +1408,7 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="5">
@@ -1371,9 +1423,11 @@
         <v>3793.3500000000004</v>
       </c>
       <c r="F22" s="6">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G22" s="6">
+        <f t="shared" si="6"/>
         <v>44824</v>
       </c>
       <c r="H22" s="5">
@@ -1381,6 +1435,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J22" s="5">
@@ -1396,7 +1451,7 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="5">
@@ -1411,9 +1466,11 @@
         <v>3762</v>
       </c>
       <c r="F23" s="6">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G23" s="6">
+        <f t="shared" si="6"/>
         <v>44825</v>
       </c>
       <c r="H23" s="5">
@@ -1421,6 +1478,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J23" s="5">
@@ -1436,7 +1494,7 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="5">
@@ -1451,9 +1509,11 @@
         <v>3730.65</v>
       </c>
       <c r="F24" s="6">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G24" s="6">
+        <f t="shared" si="6"/>
         <v>44826</v>
       </c>
       <c r="H24" s="5">
@@ -1461,6 +1521,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J24" s="5">
@@ -1476,7 +1537,7 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="5">
@@ -1491,9 +1552,11 @@
         <v>3699.3</v>
       </c>
       <c r="F25" s="6">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G25" s="6">
+        <f t="shared" si="6"/>
         <v>44827</v>
       </c>
       <c r="H25" s="5">
@@ -1501,6 +1564,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J25" s="5">
@@ -1516,7 +1580,7 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="5">
@@ -1531,9 +1595,11 @@
         <v>3667.9500000000003</v>
       </c>
       <c r="F26" s="6">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G26" s="6">
+        <f t="shared" si="6"/>
         <v>44828</v>
       </c>
       <c r="H26" s="5">
@@ -1541,6 +1607,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J26" s="5">
@@ -1556,7 +1623,7 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="5">
@@ -1571,9 +1638,11 @@
         <v>3636.6000000000004</v>
       </c>
       <c r="F27" s="6">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G27" s="6">
+        <f t="shared" si="6"/>
         <v>44829</v>
       </c>
       <c r="H27" s="5">
@@ -1581,6 +1650,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J27" s="5">
@@ -1596,7 +1666,7 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="5">
@@ -1611,9 +1681,11 @@
         <v>3605.25</v>
       </c>
       <c r="F28" s="6">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G28" s="6">
+        <f t="shared" si="6"/>
         <v>44830</v>
       </c>
       <c r="H28" s="5">
@@ -1621,6 +1693,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J28" s="5">
@@ -1636,7 +1709,7 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="5">
@@ -1651,9 +1724,11 @@
         <v>3573.9</v>
       </c>
       <c r="F29" s="6">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G29" s="6">
+        <f t="shared" si="6"/>
         <v>44831</v>
       </c>
       <c r="H29" s="5">
@@ -1661,6 +1736,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J29" s="5">
@@ -1676,7 +1752,7 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="5">
@@ -1691,9 +1767,11 @@
         <v>3542.55</v>
       </c>
       <c r="F30" s="6">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G30" s="6">
+        <f t="shared" si="6"/>
         <v>44832</v>
       </c>
       <c r="H30" s="5">
@@ -1701,6 +1779,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J30" s="5">
@@ -1716,7 +1795,7 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C31" s="5">
@@ -1731,9 +1810,11 @@
         <v>3511.2000000000003</v>
       </c>
       <c r="F31" s="6">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G31" s="6">
+        <f t="shared" si="6"/>
         <v>44833</v>
       </c>
       <c r="H31" s="5">
@@ -1741,6 +1822,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J31" s="5">
@@ -1756,7 +1838,7 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C32" s="5">
@@ -1771,9 +1853,11 @@
         <v>3479.8500000000004</v>
       </c>
       <c r="F32" s="6">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G32" s="6">
+        <f t="shared" si="6"/>
         <v>44834</v>
       </c>
       <c r="H32" s="5">
@@ -1781,6 +1865,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J32" s="5">
@@ -1796,7 +1881,7 @@
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C33" s="5">
@@ -1811,9 +1896,11 @@
         <v>3448.5</v>
       </c>
       <c r="F33" s="6">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G33" s="6">
+        <f t="shared" si="6"/>
         <v>44835</v>
       </c>
       <c r="H33" s="5">
@@ -1821,6 +1908,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J33" s="5">
@@ -1836,7 +1924,7 @@
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C34" s="5">
@@ -1851,9 +1939,11 @@
         <v>3417.15</v>
       </c>
       <c r="F34" s="6">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G34" s="6">
+        <f t="shared" si="6"/>
         <v>44836</v>
       </c>
       <c r="H34" s="5">
@@ -1861,6 +1951,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J34" s="5">
@@ -1876,7 +1967,7 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="5">
@@ -1891,9 +1982,11 @@
         <v>1692.9</v>
       </c>
       <c r="F35" s="6">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G35" s="6">
+        <f t="shared" si="6"/>
         <v>44837</v>
       </c>
       <c r="H35" s="5">
@@ -1901,6 +1994,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J35" s="5">
@@ -1916,14 +2010,14 @@
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C36" s="5">
         <v>53.5</v>
       </c>
       <c r="D36" s="5">
-        <f t="shared" ref="D36:D38" si="5">$A$1*1.1/2</f>
+        <f t="shared" ref="D36:D38" si="8">$A$1*1.1/2</f>
         <v>31.35</v>
       </c>
       <c r="E36" s="5">
@@ -1931,9 +2025,11 @@
         <v>1677.2250000000001</v>
       </c>
       <c r="F36" s="6">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G36" s="6">
+        <f t="shared" si="6"/>
         <v>44838</v>
       </c>
       <c r="H36" s="5">
@@ -1941,6 +2037,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J36" s="5">
@@ -1956,14 +2053,14 @@
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="5">
         <v>53</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>31.35</v>
       </c>
       <c r="E37" s="5">
@@ -1971,9 +2068,11 @@
         <v>1661.5500000000002</v>
       </c>
       <c r="F37" s="6">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G37" s="6">
+        <f t="shared" si="6"/>
         <v>44839</v>
       </c>
       <c r="H37" s="5">
@@ -1981,6 +2080,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J37" s="5">
@@ -1996,14 +2096,14 @@
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C38" s="5">
         <v>52.5</v>
       </c>
       <c r="D38" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>31.35</v>
       </c>
       <c r="E38" s="5">
@@ -2011,9 +2111,11 @@
         <v>1645.875</v>
       </c>
       <c r="F38" s="6">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G38" s="6">
+        <f t="shared" si="6"/>
         <v>44840</v>
       </c>
       <c r="H38" s="5">
@@ -2021,6 +2123,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J38" s="5">
@@ -2033,10 +2136,10 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="4"/>
+      <c r="B39" s="3"/>
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C40">
@@ -2045,7 +2148,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C41">
@@ -2054,7 +2157,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C42">
@@ -2063,7 +2166,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C43">
@@ -2073,6 +2176,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LR3/table_1_57.xlsx
+++ b/LR3/table_1_57.xlsx
@@ -244,14 +244,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,31 +568,31 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -594,38 +600,38 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="7">
         <v>70</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="7">
         <f>$A$1*1.1</f>
         <v>62.7</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="7">
         <f>D3*C3</f>
         <v>4389</v>
       </c>
-      <c r="F3" s="6">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="F3" s="8">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="8">
         <v>44805</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="7">
         <f>IF((G3-F3)&lt;=0,0,(G3-F3))</f>
         <v>0</v>
       </c>
-      <c r="I3" s="7">
-        <v>10</v>
-      </c>
-      <c r="J3" s="5">
+      <c r="I3" s="9">
+        <v>10</v>
+      </c>
+      <c r="J3" s="7">
         <f>I3*H3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="7">
         <f>J3+E3</f>
         <v>4389</v>
       </c>
@@ -634,41 +640,42 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="7">
+        <f>C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="7">
         <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
         <v>62.7</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="7">
         <f t="shared" ref="E4:E38" si="1">D4*C4</f>
         <v>4357.6500000000005</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="8">
         <f>F3</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="8">
         <f>G3+1</f>
         <v>44806</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="7">
         <f t="shared" ref="H4:H38" si="2">IF((G4-F4)&lt;=0,0,(G4-F4))</f>
         <v>0</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="9">
         <f>I3</f>
         <v>10</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="7">
         <f t="shared" ref="J4:J38" si="3">I4*H4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="7">
         <f t="shared" ref="K4:K38" si="4">J4+E4</f>
         <v>4357.6500000000005</v>
       </c>
@@ -677,41 +684,42 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="7">
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5" s="5">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="D5" s="7">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E5" s="7">
         <f t="shared" si="1"/>
         <v>4326.3</v>
       </c>
-      <c r="F5" s="6">
-        <f t="shared" ref="F5:F38" si="5">F4</f>
-        <v>44813</v>
-      </c>
-      <c r="G5" s="6">
-        <f t="shared" ref="G5:G38" si="6">G4+1</f>
+      <c r="F5" s="8">
+        <f t="shared" ref="F5:F38" si="6">F4</f>
+        <v>44813</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" ref="G5:G38" si="7">G4+1</f>
         <v>44807</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I5" s="7">
-        <f t="shared" ref="I5:I38" si="7">I4</f>
-        <v>10</v>
-      </c>
-      <c r="J5" s="5">
+      <c r="I5" s="9">
+        <f t="shared" ref="I5:I38" si="8">I4</f>
+        <v>10</v>
+      </c>
+      <c r="J5" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="7">
         <f t="shared" si="4"/>
         <v>4326.3</v>
       </c>
@@ -720,41 +728,42 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7">
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
-      <c r="D6" s="5">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E6" s="7">
         <f t="shared" si="1"/>
         <v>4294.95</v>
       </c>
-      <c r="F6" s="6">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G6" s="6">
-        <f t="shared" si="6"/>
+      <c r="F6" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" si="7"/>
         <v>44808</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I6" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J6" s="5">
+      <c r="I6" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J6" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="7">
         <f t="shared" si="4"/>
         <v>4294.95</v>
       </c>
@@ -763,41 +772,42 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="7">
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="D7" s="5">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E7" s="7">
         <f t="shared" si="1"/>
         <v>4263.6000000000004</v>
       </c>
-      <c r="F7" s="6">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G7" s="6">
-        <f t="shared" si="6"/>
+      <c r="F7" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="7"/>
         <v>44809</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I7" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J7" s="5">
+      <c r="I7" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J7" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="7">
         <f t="shared" si="4"/>
         <v>4263.6000000000004</v>
       </c>
@@ -806,41 +816,42 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="7">
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="5">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E8" s="7">
         <f t="shared" si="1"/>
         <v>4232.25</v>
       </c>
-      <c r="F8" s="6">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" si="6"/>
+      <c r="F8" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="7"/>
         <v>44810</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J8" s="5">
+      <c r="I8" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J8" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="7">
         <f t="shared" si="4"/>
         <v>4232.25</v>
       </c>
@@ -849,41 +860,42 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="7">
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="D9" s="5">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E9" s="7">
         <f t="shared" si="1"/>
         <v>4200.9000000000005</v>
       </c>
-      <c r="F9" s="6">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G9" s="6">
-        <f t="shared" si="6"/>
+      <c r="F9" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="7"/>
         <v>44811</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J9" s="5">
+      <c r="I9" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J9" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="7">
         <f t="shared" si="4"/>
         <v>4200.9000000000005</v>
       </c>
@@ -892,41 +904,42 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="7">
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="5">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E10" s="7">
         <f t="shared" si="1"/>
         <v>4169.55</v>
       </c>
-      <c r="F10" s="6">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G10" s="6">
-        <f t="shared" si="6"/>
+      <c r="F10" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="7"/>
         <v>44812</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J10" s="5">
+      <c r="I10" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J10" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="7">
         <f t="shared" si="4"/>
         <v>4169.55</v>
       </c>
@@ -935,41 +948,42 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="7">
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="D11" s="5">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E11" s="7">
         <f t="shared" si="1"/>
         <v>4138.2</v>
       </c>
-      <c r="F11" s="6">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G11" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="H11" s="5">
+      <c r="F11" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="H11" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J11" s="5">
+      <c r="I11" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J11" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="7">
         <f t="shared" si="4"/>
         <v>4138.2</v>
       </c>
@@ -978,41 +992,42 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="7">
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="5">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E12" s="7">
         <f t="shared" si="1"/>
         <v>4106.8500000000004</v>
       </c>
-      <c r="F12" s="6">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G12" s="6">
-        <f t="shared" si="6"/>
+      <c r="F12" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="7"/>
         <v>44814</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I12" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J12" s="5">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="5">
+      <c r="I12" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J12" s="7">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="7">
         <f t="shared" si="4"/>
         <v>4116.8500000000004</v>
       </c>
@@ -1021,41 +1036,42 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="7">
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="D13" s="5">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E13" s="7">
         <f t="shared" si="1"/>
         <v>4075.5</v>
       </c>
-      <c r="F13" s="6">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G13" s="6">
-        <f t="shared" si="6"/>
+      <c r="F13" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="7"/>
         <v>44815</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I13" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J13" s="5">
+      <c r="I13" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J13" s="7">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="7">
         <f t="shared" si="4"/>
         <v>4095.5</v>
       </c>
@@ -1064,41 +1080,42 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="7">
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="5">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="D14" s="7">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E14" s="7">
         <f t="shared" si="1"/>
         <v>4044.15</v>
       </c>
-      <c r="F14" s="6">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G14" s="6">
-        <f t="shared" si="6"/>
+      <c r="F14" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" si="7"/>
         <v>44816</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="7">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I14" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J14" s="5">
+      <c r="I14" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J14" s="7">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="7">
         <f t="shared" si="4"/>
         <v>4074.15</v>
       </c>
@@ -1107,41 +1124,42 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="7">
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="D15" s="5">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E15" s="5">
+      <c r="D15" s="7">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E15" s="7">
         <f t="shared" si="1"/>
         <v>4012.8</v>
       </c>
-      <c r="F15" s="6">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G15" s="6">
-        <f t="shared" si="6"/>
+      <c r="F15" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="8">
+        <f t="shared" si="7"/>
         <v>44817</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="7">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I15" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J15" s="5">
+      <c r="I15" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J15" s="7">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="7">
         <f t="shared" si="4"/>
         <v>4052.8</v>
       </c>
@@ -1150,41 +1168,42 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="7">
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="5">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E16" s="5">
+      <c r="D16" s="7">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E16" s="7">
         <f t="shared" si="1"/>
         <v>3981.4500000000003</v>
       </c>
-      <c r="F16" s="6">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G16" s="6">
-        <f t="shared" si="6"/>
+      <c r="F16" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" si="7"/>
         <v>44818</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="7">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I16" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J16" s="5">
+      <c r="I16" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J16" s="7">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="7">
         <f t="shared" si="4"/>
         <v>4031.4500000000003</v>
       </c>
@@ -1193,41 +1212,42 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="7">
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="D17" s="5">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E17" s="5">
+      <c r="D17" s="7">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E17" s="7">
         <f t="shared" si="1"/>
         <v>3950.1000000000004</v>
       </c>
-      <c r="F17" s="6">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G17" s="6">
-        <f t="shared" si="6"/>
+      <c r="F17" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="8">
+        <f t="shared" si="7"/>
         <v>44819</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="7">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="I17" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J17" s="5">
+      <c r="I17" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J17" s="7">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="7">
         <f t="shared" si="4"/>
         <v>4010.1000000000004</v>
       </c>
@@ -1236,41 +1256,42 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="7">
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="5">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E18" s="5">
+      <c r="D18" s="7">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E18" s="7">
         <f t="shared" si="1"/>
         <v>3918.75</v>
       </c>
-      <c r="F18" s="6">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G18" s="6">
-        <f t="shared" si="6"/>
+      <c r="F18" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" si="7"/>
         <v>44820</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="7">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="I18" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J18" s="5">
+      <c r="I18" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J18" s="7">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="7">
         <f t="shared" si="4"/>
         <v>3988.75</v>
       </c>
@@ -1279,41 +1300,42 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="7">
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="D19" s="5">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E19" s="5">
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E19" s="7">
         <f t="shared" si="1"/>
         <v>3887.4</v>
       </c>
-      <c r="F19" s="6">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G19" s="6">
-        <f t="shared" si="6"/>
+      <c r="F19" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="8">
+        <f t="shared" si="7"/>
         <v>44821</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="7">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I19" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J19" s="5">
+      <c r="I19" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J19" s="7">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="7">
         <f t="shared" si="4"/>
         <v>3967.4</v>
       </c>
@@ -1322,41 +1344,42 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="7">
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
-      <c r="D20" s="5">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="D20" s="7">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E20" s="7">
         <f t="shared" si="1"/>
         <v>3856.05</v>
       </c>
-      <c r="F20" s="6">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G20" s="6">
-        <f t="shared" si="6"/>
+      <c r="F20" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="8">
+        <f t="shared" si="7"/>
         <v>44822</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="7">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I20" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J20" s="5">
+      <c r="I20" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J20" s="7">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="7">
         <f t="shared" si="4"/>
         <v>3946.05</v>
       </c>
@@ -1365,41 +1388,42 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="7">
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="D21" s="5">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E21" s="5">
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E21" s="7">
         <f t="shared" si="1"/>
         <v>3824.7000000000003</v>
       </c>
-      <c r="F21" s="6">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G21" s="6">
-        <f t="shared" si="6"/>
+      <c r="F21" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="8">
+        <f t="shared" si="7"/>
         <v>44823</v>
       </c>
-      <c r="H21" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I21" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J21" s="5">
+      <c r="H21" s="7">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J21" s="7">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="7">
         <f t="shared" si="4"/>
         <v>3924.7000000000003</v>
       </c>
@@ -1408,41 +1432,42 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="7">
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="5">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E22" s="5">
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E22" s="7">
         <f t="shared" si="1"/>
         <v>3793.3500000000004</v>
       </c>
-      <c r="F22" s="6">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G22" s="6">
-        <f t="shared" si="6"/>
+      <c r="F22" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="8">
+        <f t="shared" si="7"/>
         <v>44824</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="7">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="I22" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J22" s="5">
+      <c r="I22" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J22" s="7">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="7">
         <f t="shared" si="4"/>
         <v>3903.3500000000004</v>
       </c>
@@ -1451,41 +1476,42 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="7">
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="D23" s="5">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E23" s="5">
+      <c r="D23" s="7">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E23" s="7">
         <f t="shared" si="1"/>
         <v>3762</v>
       </c>
-      <c r="F23" s="6">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G23" s="6">
-        <f t="shared" si="6"/>
+      <c r="F23" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="8">
+        <f t="shared" si="7"/>
         <v>44825</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="7">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="I23" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J23" s="5">
+      <c r="I23" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J23" s="7">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="7">
         <f t="shared" si="4"/>
         <v>3882</v>
       </c>
@@ -1494,41 +1520,42 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="7">
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="5">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E24" s="5">
+      <c r="D24" s="7">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E24" s="7">
         <f t="shared" si="1"/>
         <v>3730.65</v>
       </c>
-      <c r="F24" s="6">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G24" s="6">
-        <f t="shared" si="6"/>
+      <c r="F24" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="8">
+        <f t="shared" si="7"/>
         <v>44826</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="7">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="I24" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J24" s="5">
+      <c r="I24" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J24" s="7">
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="7">
         <f t="shared" si="4"/>
         <v>3860.65</v>
       </c>
@@ -1537,41 +1564,42 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="7">
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="D25" s="5">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E25" s="5">
+      <c r="D25" s="7">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E25" s="7">
         <f t="shared" si="1"/>
         <v>3699.3</v>
       </c>
-      <c r="F25" s="6">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G25" s="6">
-        <f t="shared" si="6"/>
+      <c r="F25" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="8">
+        <f t="shared" si="7"/>
         <v>44827</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="7">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="I25" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J25" s="5">
+      <c r="I25" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J25" s="7">
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="7">
         <f t="shared" si="4"/>
         <v>3839.3</v>
       </c>
@@ -1580,41 +1608,42 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="7">
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="5">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E26" s="5">
+      <c r="D26" s="7">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E26" s="7">
         <f t="shared" si="1"/>
         <v>3667.9500000000003</v>
       </c>
-      <c r="F26" s="6">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G26" s="6">
-        <f t="shared" si="6"/>
+      <c r="F26" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="8">
+        <f t="shared" si="7"/>
         <v>44828</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="7">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="I26" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J26" s="5">
+      <c r="I26" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J26" s="7">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="7">
         <f t="shared" si="4"/>
         <v>3817.9500000000003</v>
       </c>
@@ -1623,41 +1652,42 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="7">
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
-      <c r="D27" s="5">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E27" s="5">
+      <c r="D27" s="7">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E27" s="7">
         <f t="shared" si="1"/>
         <v>3636.6000000000004</v>
       </c>
-      <c r="F27" s="6">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G27" s="6">
-        <f t="shared" si="6"/>
+      <c r="F27" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="8">
+        <f t="shared" si="7"/>
         <v>44829</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="7">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="I27" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J27" s="5">
+      <c r="I27" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J27" s="7">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="7">
         <f t="shared" si="4"/>
         <v>3796.6000000000004</v>
       </c>
@@ -1666,41 +1696,42 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="7">
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="5">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E28" s="5">
+      <c r="D28" s="7">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E28" s="7">
         <f t="shared" si="1"/>
         <v>3605.25</v>
       </c>
-      <c r="F28" s="6">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G28" s="6">
-        <f t="shared" si="6"/>
+      <c r="F28" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="8">
+        <f t="shared" si="7"/>
         <v>44830</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="7">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="I28" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J28" s="5">
+      <c r="I28" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J28" s="7">
         <f t="shared" si="3"/>
         <v>170</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="7">
         <f t="shared" si="4"/>
         <v>3775.25</v>
       </c>
@@ -1709,41 +1740,42 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="7">
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
-      <c r="D29" s="5">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E29" s="5">
+      <c r="D29" s="7">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E29" s="7">
         <f t="shared" si="1"/>
         <v>3573.9</v>
       </c>
-      <c r="F29" s="6">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G29" s="6">
-        <f t="shared" si="6"/>
+      <c r="F29" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="8">
+        <f t="shared" si="7"/>
         <v>44831</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="7">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="I29" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J29" s="5">
+      <c r="I29" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J29" s="7">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="7">
         <f t="shared" si="4"/>
         <v>3753.9</v>
       </c>
@@ -1752,41 +1784,42 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="7">
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="5">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E30" s="5">
+      <c r="D30" s="7">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E30" s="7">
         <f t="shared" si="1"/>
         <v>3542.55</v>
       </c>
-      <c r="F30" s="6">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G30" s="6">
-        <f t="shared" si="6"/>
+      <c r="F30" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="8">
+        <f t="shared" si="7"/>
         <v>44832</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="7">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="I30" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J30" s="5">
+      <c r="I30" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J30" s="7">
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="7">
         <f t="shared" si="4"/>
         <v>3732.55</v>
       </c>
@@ -1795,41 +1828,42 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="7">
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
-      <c r="D31" s="5">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E31" s="5">
+      <c r="D31" s="7">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E31" s="7">
         <f t="shared" si="1"/>
         <v>3511.2000000000003</v>
       </c>
-      <c r="F31" s="6">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G31" s="6">
-        <f t="shared" si="6"/>
+      <c r="F31" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="8">
+        <f t="shared" si="7"/>
         <v>44833</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="7">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="I31" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J31" s="5">
+      <c r="I31" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J31" s="7">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="7">
         <f t="shared" si="4"/>
         <v>3711.2000000000003</v>
       </c>
@@ -1838,41 +1872,42 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="7">
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="5">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E32" s="5">
+      <c r="D32" s="7">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E32" s="7">
         <f t="shared" si="1"/>
         <v>3479.8500000000004</v>
       </c>
-      <c r="F32" s="6">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G32" s="6">
-        <f t="shared" si="6"/>
+      <c r="F32" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="8">
+        <f t="shared" si="7"/>
         <v>44834</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="7">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="I32" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J32" s="5">
+      <c r="I32" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J32" s="7">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="7">
         <f t="shared" si="4"/>
         <v>3689.8500000000004</v>
       </c>
@@ -1881,41 +1916,42 @@
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="7">
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="D33" s="5">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E33" s="5">
+      <c r="D33" s="7">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E33" s="7">
         <f t="shared" si="1"/>
         <v>3448.5</v>
       </c>
-      <c r="F33" s="6">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G33" s="6">
-        <f t="shared" si="6"/>
+      <c r="F33" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="8">
+        <f t="shared" si="7"/>
         <v>44835</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="7">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="I33" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J33" s="5">
+      <c r="I33" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J33" s="7">
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33" s="7">
         <f t="shared" si="4"/>
         <v>3668.5</v>
       </c>
@@ -1924,41 +1960,42 @@
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="7">
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="5">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E34" s="5">
+      <c r="D34" s="7">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E34" s="7">
         <f t="shared" si="1"/>
         <v>3417.15</v>
       </c>
-      <c r="F34" s="6">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G34" s="6">
-        <f t="shared" si="6"/>
+      <c r="F34" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="8">
+        <f t="shared" si="7"/>
         <v>44836</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="7">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="I34" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J34" s="5">
+      <c r="I34" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J34" s="7">
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="7">
         <f t="shared" si="4"/>
         <v>3647.15</v>
       </c>
@@ -1967,41 +2004,42 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="7">
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="7">
         <f>$A$1*1.1/2</f>
         <v>31.35</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="7">
         <f t="shared" si="1"/>
         <v>1692.9</v>
       </c>
-      <c r="F35" s="6">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G35" s="6">
-        <f t="shared" si="6"/>
+      <c r="F35" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="8">
+        <f t="shared" si="7"/>
         <v>44837</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="7">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="I35" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J35" s="5">
+      <c r="I35" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J35" s="7">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35" s="7">
         <f t="shared" si="4"/>
         <v>1932.9</v>
       </c>
@@ -2010,41 +2048,42 @@
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="7">
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="5">
-        <f t="shared" ref="D36:D38" si="8">$A$1*1.1/2</f>
+      <c r="D36" s="7">
+        <f t="shared" ref="D36:D38" si="9">$A$1*1.1/2</f>
         <v>31.35</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="7">
         <f t="shared" si="1"/>
         <v>1677.2250000000001</v>
       </c>
-      <c r="F36" s="6">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G36" s="6">
-        <f t="shared" si="6"/>
+      <c r="F36" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="8">
+        <f t="shared" si="7"/>
         <v>44838</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="7">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="I36" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J36" s="5">
+      <c r="I36" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J36" s="7">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36" s="7">
         <f t="shared" si="4"/>
         <v>1927.2250000000001</v>
       </c>
@@ -2053,41 +2092,42 @@
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="7">
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="D37" s="5">
-        <f t="shared" si="8"/>
+      <c r="D37" s="7">
+        <f t="shared" si="9"/>
         <v>31.35</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="7">
         <f t="shared" si="1"/>
         <v>1661.5500000000002</v>
       </c>
-      <c r="F37" s="6">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G37" s="6">
-        <f t="shared" si="6"/>
+      <c r="F37" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="8">
+        <f t="shared" si="7"/>
         <v>44839</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="7">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="I37" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J37" s="5">
+      <c r="I37" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J37" s="7">
         <f t="shared" si="3"/>
         <v>260</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="7">
         <f t="shared" si="4"/>
         <v>1921.5500000000002</v>
       </c>
@@ -2096,41 +2136,42 @@
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="7">
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
-      <c r="D38" s="5">
-        <f t="shared" si="8"/>
+      <c r="D38" s="7">
+        <f t="shared" si="9"/>
         <v>31.35</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="7">
         <f t="shared" si="1"/>
         <v>1645.875</v>
       </c>
-      <c r="F38" s="6">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G38" s="6">
-        <f t="shared" si="6"/>
+      <c r="F38" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="8">
+        <f t="shared" si="7"/>
         <v>44840</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="7">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="I38" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J38" s="5">
+      <c r="I38" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J38" s="7">
         <f t="shared" si="3"/>
         <v>270</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K38" s="7">
         <f t="shared" si="4"/>
         <v>1915.875</v>
       </c>
@@ -2142,7 +2183,7 @@
       <c r="B40" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="7">
         <f>SUM(K3:K38)</f>
         <v>135355.94999999998</v>
       </c>
@@ -2151,7 +2192,7 @@
       <c r="B41" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="7">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
@@ -2160,7 +2201,7 @@
       <c r="B42" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="7">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
@@ -2169,7 +2210,7 @@
       <c r="B43" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="7">
         <f>MAX(K3:K38)</f>
         <v>4389</v>
       </c>

--- a/LR3/table_1_57.xlsx
+++ b/LR3/table_1_57.xlsx
@@ -41,12 +41,6 @@
     <t>Пени за 1 день</t>
   </si>
   <si>
-    <t>Штраф</t>
-  </si>
-  <si>
-    <t>Итого</t>
-  </si>
-  <si>
     <t>Алишеров</t>
   </si>
   <si>
@@ -177,6 +171,12 @@
   </si>
   <si>
     <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
   </si>
 </sst>
 </file>
@@ -208,10 +208,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -253,7 +252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -541,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,20 +561,20 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
@@ -584,16 +583,16 @@
         <v>3</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -601,16 +600,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="7">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
         <v>70</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="1">
         <f>$A$1*1.1</f>
         <v>62.7</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="1">
         <f>D3*C3</f>
         <v>4389</v>
       </c>
@@ -620,38 +619,39 @@
       <c r="G3" s="8">
         <v>44805</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="1">
         <f>IF((G3-F3)&lt;=0,0,(G3-F3))</f>
         <v>0</v>
       </c>
       <c r="I3" s="9">
         <v>10</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="1">
         <f>I3*H3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="1">
         <f>J3+E3</f>
         <v>4389</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="7">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="1">
         <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
         <v>62.7</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="1">
         <f t="shared" ref="E4:E38" si="1">D4*C4</f>
         <v>4357.6500000000005</v>
       </c>
@@ -663,7 +663,7 @@
         <f>G3+1</f>
         <v>44806</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="1">
         <f t="shared" ref="H4:H38" si="2">IF((G4-F4)&lt;=0,0,(G4-F4))</f>
         <v>0</v>
       </c>
@@ -671,1507 +671,1541 @@
         <f>I3</f>
         <v>10</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="1">
         <f t="shared" ref="J4:J38" si="3">I4*H4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="1">
         <f t="shared" ref="K4:K38" si="4">J4+E4</f>
         <v>4357.6500000000005</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
+        <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="7">
-        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5" s="7">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E5" s="1">
         <f t="shared" si="1"/>
         <v>4326.3</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" ref="F5:F38" si="6">F4</f>
+        <f t="shared" ref="F5:F38" si="7">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="8">
-        <f t="shared" ref="G5:G38" si="7">G4+1</f>
+        <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I5" s="9">
-        <f t="shared" ref="I5:I38" si="8">I4</f>
-        <v>10</v>
-      </c>
-      <c r="J5" s="7">
+        <f t="shared" ref="I5:I38" si="9">I4</f>
+        <v>10</v>
+      </c>
+      <c r="J5" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="1">
         <f t="shared" si="4"/>
         <v>4326.3</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="7">
-        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="6"/>
         <v>68.5</v>
       </c>
-      <c r="D6" s="7">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E6" s="1">
         <f t="shared" si="1"/>
         <v>4294.95</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G6" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="9">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J6" s="7">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="1">
         <f t="shared" si="4"/>
         <v>4294.95</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="7">
-        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
-      <c r="D7" s="7">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E7" s="1">
         <f t="shared" si="1"/>
         <v>4263.6000000000004</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G7" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I7" s="9">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J7" s="7">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="1">
         <f t="shared" si="4"/>
         <v>4263.6000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="7">
-        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="7">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E8" s="1">
         <f t="shared" si="1"/>
         <v>4232.25</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G8" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I8" s="9">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J8" s="7">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="1">
         <f t="shared" si="4"/>
         <v>4232.25</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="7">
-        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
-      <c r="D9" s="7">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E9" s="1">
         <f t="shared" si="1"/>
         <v>4200.9000000000005</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G9" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I9" s="9">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J9" s="7">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="1">
         <f t="shared" si="4"/>
         <v>4200.9000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="7">
-        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="7">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E10" s="1">
         <f t="shared" si="1"/>
         <v>4169.55</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G10" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I10" s="9">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J10" s="7">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J10" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="1">
         <f t="shared" si="4"/>
         <v>4169.55</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="7">
-        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
-      <c r="D11" s="7">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E11" s="1">
         <f t="shared" si="1"/>
         <v>4138.2</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G11" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="H11" s="7">
+        <f t="shared" si="8"/>
+        <v>44813</v>
+      </c>
+      <c r="H11" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11" s="9">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J11" s="7">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J11" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="1">
         <f t="shared" si="4"/>
         <v>4138.2</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="7">
-        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="7">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E12" s="1">
         <f t="shared" si="1"/>
         <v>4106.8500000000004</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G12" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I12" s="9">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J12" s="7">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="7">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="1">
         <f t="shared" si="4"/>
         <v>4116.8500000000004</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="7">
-        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
-      <c r="D13" s="7">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E13" s="1">
         <f t="shared" si="1"/>
         <v>4075.5</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G13" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="1">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I13" s="9">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J13" s="7">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J13" s="1">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="1">
         <f t="shared" si="4"/>
         <v>4095.5</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="7">
-        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="7">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E14" s="1">
         <f t="shared" si="1"/>
         <v>4044.15</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G14" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="1">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I14" s="9">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J14" s="7">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J14" s="1">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="1">
         <f t="shared" si="4"/>
         <v>4074.15</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="7">
-        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
-      <c r="D15" s="7">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E15" s="1">
         <f t="shared" si="1"/>
         <v>4012.8</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G15" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="1">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I15" s="9">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J15" s="7">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J15" s="1">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="1">
         <f t="shared" si="4"/>
         <v>4052.8</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="7">
-        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="7">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E16" s="1">
         <f t="shared" si="1"/>
         <v>3981.4500000000003</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G16" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I16" s="9">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J16" s="7">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J16" s="1">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="1">
         <f t="shared" si="4"/>
         <v>4031.4500000000003</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="7">
-        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
-      <c r="D17" s="7">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E17" s="1">
         <f t="shared" si="1"/>
         <v>3950.1000000000004</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G17" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="1">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I17" s="9">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J17" s="7">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J17" s="1">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="1">
         <f t="shared" si="4"/>
         <v>4010.1000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="7">
-        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="7">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E18" s="1">
         <f t="shared" si="1"/>
         <v>3918.75</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G18" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="1">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I18" s="9">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J18" s="7">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J18" s="1">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="1">
         <f t="shared" si="4"/>
         <v>3988.75</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="7">
-        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
-      <c r="D19" s="7">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E19" s="7">
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E19" s="1">
         <f t="shared" si="1"/>
         <v>3887.4</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G19" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="1">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I19" s="9">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J19" s="7">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J19" s="1">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="1">
         <f t="shared" si="4"/>
         <v>3967.4</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="7">
-        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
-      <c r="D20" s="7">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E20" s="7">
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E20" s="1">
         <f t="shared" si="1"/>
         <v>3856.05</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G20" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="1">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I20" s="9">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J20" s="7">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J20" s="1">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="1">
         <f t="shared" si="4"/>
         <v>3946.05</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="7">
-        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
-      <c r="D21" s="7">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E21" s="7">
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E21" s="1">
         <f t="shared" si="1"/>
         <v>3824.7000000000003</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G21" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="I21" s="9">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J21" s="7">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J21" s="1">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="1">
         <f t="shared" si="4"/>
         <v>3924.7000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="7">
-        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="7">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E22" s="7">
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E22" s="1">
         <f t="shared" si="1"/>
         <v>3793.3500000000004</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G22" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="1">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="I22" s="9">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J22" s="7">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J22" s="1">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="1">
         <f t="shared" si="4"/>
         <v>3903.3500000000004</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="7">
-        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="D23" s="7">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E23" s="7">
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E23" s="1">
         <f t="shared" si="1"/>
         <v>3762</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G23" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="1">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="I23" s="9">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J23" s="7">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J23" s="1">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="1">
         <f t="shared" si="4"/>
         <v>3882</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="7">
-        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="7">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E24" s="7">
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E24" s="1">
         <f t="shared" si="1"/>
         <v>3730.65</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G24" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="I24" s="9">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J24" s="7">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J24" s="1">
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="1">
         <f t="shared" si="4"/>
         <v>3860.65</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="7">
-        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
-      <c r="D25" s="7">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E25" s="7">
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E25" s="1">
         <f t="shared" si="1"/>
         <v>3699.3</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G25" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="1">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="I25" s="9">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J25" s="7">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J25" s="1">
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="1">
         <f t="shared" si="4"/>
         <v>3839.3</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="7">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E26" s="7">
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E26" s="1">
         <f t="shared" si="1"/>
         <v>3667.9500000000003</v>
       </c>
       <c r="F26" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G26" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="1">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="I26" s="9">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J26" s="7">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J26" s="1">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="1">
         <f t="shared" si="4"/>
         <v>3817.9500000000003</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="7">
-        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
-      <c r="D27" s="7">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E27" s="7">
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E27" s="1">
         <f t="shared" si="1"/>
         <v>3636.6000000000004</v>
       </c>
       <c r="F27" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G27" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="1">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="I27" s="9">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J27" s="7">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J27" s="1">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="1">
         <f t="shared" si="4"/>
         <v>3796.6000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="7">
-        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="7">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E28" s="7">
+      <c r="D28" s="1">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E28" s="1">
         <f t="shared" si="1"/>
         <v>3605.25</v>
       </c>
       <c r="F28" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G28" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="1">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="I28" s="9">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J28" s="7">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J28" s="1">
         <f t="shared" si="3"/>
         <v>170</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="1">
         <f t="shared" si="4"/>
         <v>3775.25</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="7">
-        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
-      <c r="D29" s="7">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E29" s="7">
+      <c r="D29" s="1">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E29" s="1">
         <f t="shared" si="1"/>
         <v>3573.9</v>
       </c>
       <c r="F29" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G29" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="1">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="I29" s="9">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J29" s="7">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J29" s="1">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="1">
         <f t="shared" si="4"/>
         <v>3753.9</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="7">
-        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="6"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="7">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E30" s="7">
+      <c r="D30" s="1">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E30" s="1">
         <f t="shared" si="1"/>
         <v>3542.55</v>
       </c>
       <c r="F30" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G30" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="1">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="I30" s="9">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J30" s="7">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J30" s="1">
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K30" s="1">
         <f t="shared" si="4"/>
         <v>3732.55</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="7">
-        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
-      <c r="D31" s="7">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E31" s="7">
+      <c r="D31" s="1">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E31" s="1">
         <f t="shared" si="1"/>
         <v>3511.2000000000003</v>
       </c>
       <c r="F31" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G31" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="1">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="I31" s="9">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J31" s="7">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J31" s="1">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="1">
         <f t="shared" si="4"/>
         <v>3711.2000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="7">
-        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="6"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="7">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E32" s="7">
+      <c r="D32" s="1">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E32" s="1">
         <f t="shared" si="1"/>
         <v>3479.8500000000004</v>
       </c>
       <c r="F32" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G32" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="1">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="I32" s="9">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J32" s="7">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J32" s="1">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="1">
         <f t="shared" si="4"/>
         <v>3689.8500000000004</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="7">
-        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
-      <c r="D33" s="7">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E33" s="7">
+      <c r="D33" s="1">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E33" s="1">
         <f t="shared" si="1"/>
         <v>3448.5</v>
       </c>
       <c r="F33" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G33" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="1">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="I33" s="9">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J33" s="7">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J33" s="1">
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33" s="1">
         <f t="shared" si="4"/>
         <v>3668.5</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="7">
-        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="7">
-        <f t="shared" si="0"/>
-        <v>62.7</v>
-      </c>
-      <c r="E34" s="7">
+      <c r="D34" s="1">
+        <f t="shared" si="0"/>
+        <v>62.7</v>
+      </c>
+      <c r="E34" s="1">
         <f t="shared" si="1"/>
         <v>3417.15</v>
       </c>
       <c r="F34" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G34" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="1">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="I34" s="9">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J34" s="7">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J34" s="1">
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K34" s="1">
         <f t="shared" si="4"/>
         <v>3647.15</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="7">
-        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="1">
         <f>$A$1*1.1/2</f>
         <v>31.35</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="1">
         <f t="shared" si="1"/>
         <v>1692.9</v>
       </c>
       <c r="F35" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G35" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="1">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="I35" s="9">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J35" s="7">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J35" s="1">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K35" s="1">
         <f t="shared" si="4"/>
         <v>1932.9</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="7">
-        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="7">
-        <f t="shared" ref="D36:D38" si="9">$A$1*1.1/2</f>
+      <c r="D36" s="1">
+        <f t="shared" ref="D36:D38" si="10">$A$1*1.1/2</f>
         <v>31.35</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="1">
         <f t="shared" si="1"/>
         <v>1677.2250000000001</v>
       </c>
       <c r="F36" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G36" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="1">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="I36" s="9">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J36" s="7">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J36" s="1">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="K36" s="7">
+      <c r="K36" s="1">
         <f t="shared" si="4"/>
         <v>1927.2250000000001</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="7">
-        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
-      <c r="D37" s="7">
-        <f t="shared" si="9"/>
+      <c r="D37" s="1">
+        <f t="shared" si="10"/>
         <v>31.35</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="1">
         <f t="shared" si="1"/>
         <v>1661.5500000000002</v>
       </c>
       <c r="F37" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G37" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="1">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="I37" s="9">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J37" s="7">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J37" s="1">
         <f t="shared" si="3"/>
         <v>260</v>
       </c>
-      <c r="K37" s="7">
+      <c r="K37" s="1">
         <f t="shared" si="4"/>
         <v>1921.5500000000002</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="7">
-        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
-      <c r="D38" s="7">
-        <f t="shared" si="9"/>
+      <c r="D38" s="1">
+        <f t="shared" si="10"/>
         <v>31.35</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="1">
         <f t="shared" si="1"/>
         <v>1645.875</v>
       </c>
       <c r="F38" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G38" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="1">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="I38" s="9">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J38" s="7">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J38" s="1">
         <f t="shared" si="3"/>
         <v>270</v>
       </c>
-      <c r="K38" s="7">
+      <c r="K38" s="1">
         <f t="shared" si="4"/>
         <v>1915.875</v>
       </c>
@@ -2181,7 +2215,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C40" s="7">
         <f>SUM(K3:K38)</f>
@@ -2190,7 +2224,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C41" s="7">
         <f>AVERAGE(C3:C38)</f>
@@ -2199,7 +2233,7 @@
     </row>
     <row r="42" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C42" s="7">
         <f>MAX(H3:H38)</f>
@@ -2208,7 +2242,7 @@
     </row>
     <row r="43" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C43" s="7">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_57.xlsx
+++ b/LR3/table_1_57.xlsx
@@ -38,9 +38,6 @@
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>Пени за 1 день</t>
-  </si>
-  <si>
     <t>Алишеров</t>
   </si>
   <si>
@@ -161,9 +158,6 @@
     <t>Просрочка, дней</t>
   </si>
   <si>
-    <t>Максимальная сумма к оплате, руб.</t>
-  </si>
-  <si>
     <t>Максимальный срок просрочки, руб.</t>
   </si>
   <si>
@@ -177,6 +171,12 @@
   </si>
   <si>
     <t>Итого, руб.</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Максимальная сумма просрочки, руб.</t>
   </si>
 </sst>
 </file>
@@ -233,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -248,9 +248,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -538,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,13 +565,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
@@ -583,16 +580,16 @@
         <v>3</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -600,7 +597,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -613,17 +610,17 @@
         <f>D3*C3</f>
         <v>4389</v>
       </c>
-      <c r="F3" s="8">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="8">
+      <c r="F3" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="7">
         <v>44805</v>
       </c>
       <c r="H3" s="1">
         <f>IF((G3-F3)&lt;=0,0,(G3-F3))</f>
         <v>0</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>10</v>
       </c>
       <c r="J3" s="1">
@@ -641,7 +638,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -655,11 +652,11 @@
         <f t="shared" ref="E4:E38" si="1">D4*C4</f>
         <v>4357.6500000000005</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <f>F3</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <f>G3+1</f>
         <v>44806</v>
       </c>
@@ -667,7 +664,7 @@
         <f t="shared" ref="H4:H38" si="2">IF((G4-F4)&lt;=0,0,(G4-F4))</f>
         <v>0</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <f>I3</f>
         <v>10</v>
       </c>
@@ -686,7 +683,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
@@ -700,11 +697,11 @@
         <f t="shared" si="1"/>
         <v>4326.3</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <f t="shared" ref="F5:F38" si="7">F4</f>
         <v>44813</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
@@ -712,7 +709,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <f t="shared" ref="I5:I38" si="9">I4</f>
         <v>10</v>
       </c>
@@ -731,7 +728,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="6"/>
@@ -745,11 +742,11 @@
         <f t="shared" si="1"/>
         <v>4294.95</v>
       </c>
-      <c r="F6" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G6" s="8">
+      <c r="F6" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="7">
         <f t="shared" si="8"/>
         <v>44808</v>
       </c>
@@ -757,7 +754,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
@@ -776,7 +773,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="6"/>
@@ -790,11 +787,11 @@
         <f t="shared" si="1"/>
         <v>4263.6000000000004</v>
       </c>
-      <c r="F7" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G7" s="8">
+      <c r="F7" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="7">
         <f t="shared" si="8"/>
         <v>44809</v>
       </c>
@@ -802,7 +799,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
@@ -821,7 +818,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="6"/>
@@ -835,11 +832,11 @@
         <f t="shared" si="1"/>
         <v>4232.25</v>
       </c>
-      <c r="F8" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G8" s="8">
+      <c r="F8" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="7">
         <f t="shared" si="8"/>
         <v>44810</v>
       </c>
@@ -847,7 +844,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
@@ -866,7 +863,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="6"/>
@@ -880,11 +877,11 @@
         <f t="shared" si="1"/>
         <v>4200.9000000000005</v>
       </c>
-      <c r="F9" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G9" s="8">
+      <c r="F9" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="7">
         <f t="shared" si="8"/>
         <v>44811</v>
       </c>
@@ -892,7 +889,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
@@ -911,7 +908,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="6"/>
@@ -925,11 +922,11 @@
         <f t="shared" si="1"/>
         <v>4169.55</v>
       </c>
-      <c r="F10" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G10" s="8">
+      <c r="F10" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="7">
         <f t="shared" si="8"/>
         <v>44812</v>
       </c>
@@ -937,7 +934,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
@@ -956,7 +953,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="6"/>
@@ -970,11 +967,11 @@
         <f t="shared" si="1"/>
         <v>4138.2</v>
       </c>
-      <c r="F11" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G11" s="8">
+      <c r="F11" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="7">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
@@ -982,7 +979,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
@@ -1001,7 +998,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="6"/>
@@ -1015,11 +1012,11 @@
         <f t="shared" si="1"/>
         <v>4106.8500000000004</v>
       </c>
-      <c r="F12" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G12" s="8">
+      <c r="F12" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="7">
         <f t="shared" si="8"/>
         <v>44814</v>
       </c>
@@ -1027,7 +1024,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
@@ -1046,7 +1043,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="6"/>
@@ -1060,11 +1057,11 @@
         <f t="shared" si="1"/>
         <v>4075.5</v>
       </c>
-      <c r="F13" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G13" s="8">
+      <c r="F13" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="7">
         <f t="shared" si="8"/>
         <v>44815</v>
       </c>
@@ -1072,7 +1069,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
@@ -1091,7 +1088,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="6"/>
@@ -1105,11 +1102,11 @@
         <f t="shared" si="1"/>
         <v>4044.15</v>
       </c>
-      <c r="F14" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G14" s="8">
+      <c r="F14" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="7">
         <f t="shared" si="8"/>
         <v>44816</v>
       </c>
@@ -1117,7 +1114,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
@@ -1136,7 +1133,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="6"/>
@@ -1150,11 +1147,11 @@
         <f t="shared" si="1"/>
         <v>4012.8</v>
       </c>
-      <c r="F15" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G15" s="8">
+      <c r="F15" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="7">
         <f t="shared" si="8"/>
         <v>44817</v>
       </c>
@@ -1162,7 +1159,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
@@ -1181,7 +1178,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="6"/>
@@ -1195,11 +1192,11 @@
         <f t="shared" si="1"/>
         <v>3981.4500000000003</v>
       </c>
-      <c r="F16" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G16" s="8">
+      <c r="F16" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="7">
         <f t="shared" si="8"/>
         <v>44818</v>
       </c>
@@ -1207,7 +1204,7 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="8">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
@@ -1226,7 +1223,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="6"/>
@@ -1240,11 +1237,11 @@
         <f t="shared" si="1"/>
         <v>3950.1000000000004</v>
       </c>
-      <c r="F17" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G17" s="8">
+      <c r="F17" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="7">
         <f t="shared" si="8"/>
         <v>44819</v>
       </c>
@@ -1252,7 +1249,7 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
@@ -1271,7 +1268,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="6"/>
@@ -1285,11 +1282,11 @@
         <f t="shared" si="1"/>
         <v>3918.75</v>
       </c>
-      <c r="F18" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G18" s="8">
+      <c r="F18" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="7">
         <f t="shared" si="8"/>
         <v>44820</v>
       </c>
@@ -1297,7 +1294,7 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="8">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
@@ -1316,7 +1313,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="6"/>
@@ -1330,11 +1327,11 @@
         <f t="shared" si="1"/>
         <v>3887.4</v>
       </c>
-      <c r="F19" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G19" s="8">
+      <c r="F19" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="7">
         <f t="shared" si="8"/>
         <v>44821</v>
       </c>
@@ -1342,7 +1339,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="8">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
@@ -1361,7 +1358,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="6"/>
@@ -1375,11 +1372,11 @@
         <f t="shared" si="1"/>
         <v>3856.05</v>
       </c>
-      <c r="F20" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G20" s="8">
+      <c r="F20" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="7">
         <f t="shared" si="8"/>
         <v>44822</v>
       </c>
@@ -1387,7 +1384,7 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="8">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
@@ -1406,7 +1403,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="6"/>
@@ -1420,11 +1417,11 @@
         <f t="shared" si="1"/>
         <v>3824.7000000000003</v>
       </c>
-      <c r="F21" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G21" s="8">
+      <c r="F21" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="7">
         <f t="shared" si="8"/>
         <v>44823</v>
       </c>
@@ -1432,7 +1429,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="8">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
@@ -1451,7 +1448,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="6"/>
@@ -1465,11 +1462,11 @@
         <f t="shared" si="1"/>
         <v>3793.3500000000004</v>
       </c>
-      <c r="F22" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G22" s="8">
+      <c r="F22" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="7">
         <f t="shared" si="8"/>
         <v>44824</v>
       </c>
@@ -1477,7 +1474,7 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="8">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
@@ -1496,7 +1493,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="6"/>
@@ -1510,11 +1507,11 @@
         <f t="shared" si="1"/>
         <v>3762</v>
       </c>
-      <c r="F23" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G23" s="8">
+      <c r="F23" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="7">
         <f t="shared" si="8"/>
         <v>44825</v>
       </c>
@@ -1522,7 +1519,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="8">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
@@ -1541,7 +1538,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="6"/>
@@ -1555,11 +1552,11 @@
         <f t="shared" si="1"/>
         <v>3730.65</v>
       </c>
-      <c r="F24" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G24" s="8">
+      <c r="F24" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="7">
         <f t="shared" si="8"/>
         <v>44826</v>
       </c>
@@ -1567,7 +1564,7 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="8">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
@@ -1586,7 +1583,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="6"/>
@@ -1600,11 +1597,11 @@
         <f t="shared" si="1"/>
         <v>3699.3</v>
       </c>
-      <c r="F25" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G25" s="8">
+      <c r="F25" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="7">
         <f t="shared" si="8"/>
         <v>44827</v>
       </c>
@@ -1612,7 +1609,7 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="8">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
@@ -1631,7 +1628,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="6"/>
@@ -1645,11 +1642,11 @@
         <f t="shared" si="1"/>
         <v>3667.9500000000003</v>
       </c>
-      <c r="F26" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G26" s="8">
+      <c r="F26" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="7">
         <f t="shared" si="8"/>
         <v>44828</v>
       </c>
@@ -1657,7 +1654,7 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="8">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
@@ -1676,7 +1673,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="6"/>
@@ -1690,11 +1687,11 @@
         <f t="shared" si="1"/>
         <v>3636.6000000000004</v>
       </c>
-      <c r="F27" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G27" s="8">
+      <c r="F27" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="7">
         <f t="shared" si="8"/>
         <v>44829</v>
       </c>
@@ -1702,7 +1699,7 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="8">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
@@ -1721,7 +1718,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="6"/>
@@ -1735,11 +1732,11 @@
         <f t="shared" si="1"/>
         <v>3605.25</v>
       </c>
-      <c r="F28" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G28" s="8">
+      <c r="F28" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="7">
         <f t="shared" si="8"/>
         <v>44830</v>
       </c>
@@ -1747,7 +1744,7 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="8">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
@@ -1766,7 +1763,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="6"/>
@@ -1780,11 +1777,11 @@
         <f t="shared" si="1"/>
         <v>3573.9</v>
       </c>
-      <c r="F29" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G29" s="8">
+      <c r="F29" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="7">
         <f t="shared" si="8"/>
         <v>44831</v>
       </c>
@@ -1792,7 +1789,7 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="8">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
@@ -1811,7 +1808,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="6"/>
@@ -1825,11 +1822,11 @@
         <f t="shared" si="1"/>
         <v>3542.55</v>
       </c>
-      <c r="F30" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G30" s="8">
+      <c r="F30" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="7">
         <f t="shared" si="8"/>
         <v>44832</v>
       </c>
@@ -1837,7 +1834,7 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="8">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
@@ -1856,7 +1853,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="6"/>
@@ -1870,11 +1867,11 @@
         <f t="shared" si="1"/>
         <v>3511.2000000000003</v>
       </c>
-      <c r="F31" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G31" s="8">
+      <c r="F31" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="7">
         <f t="shared" si="8"/>
         <v>44833</v>
       </c>
@@ -1882,7 +1879,7 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="8">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
@@ -1901,7 +1898,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="6"/>
@@ -1915,11 +1912,11 @@
         <f t="shared" si="1"/>
         <v>3479.8500000000004</v>
       </c>
-      <c r="F32" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G32" s="8">
+      <c r="F32" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="7">
         <f t="shared" si="8"/>
         <v>44834</v>
       </c>
@@ -1927,7 +1924,7 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="8">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
@@ -1946,7 +1943,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="6"/>
@@ -1960,11 +1957,11 @@
         <f t="shared" si="1"/>
         <v>3448.5</v>
       </c>
-      <c r="F33" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G33" s="8">
+      <c r="F33" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="7">
         <f t="shared" si="8"/>
         <v>44835</v>
       </c>
@@ -1972,7 +1969,7 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="8">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
@@ -1991,7 +1988,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="6"/>
@@ -2005,11 +2002,11 @@
         <f t="shared" si="1"/>
         <v>3417.15</v>
       </c>
-      <c r="F34" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G34" s="8">
+      <c r="F34" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="7">
         <f t="shared" si="8"/>
         <v>44836</v>
       </c>
@@ -2017,7 +2014,7 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="8">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
@@ -2036,7 +2033,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="6"/>
@@ -2050,11 +2047,11 @@
         <f t="shared" si="1"/>
         <v>1692.9</v>
       </c>
-      <c r="F35" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G35" s="8">
+      <c r="F35" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="7">
         <f t="shared" si="8"/>
         <v>44837</v>
       </c>
@@ -2062,7 +2059,7 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="8">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
@@ -2081,7 +2078,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="6"/>
@@ -2095,11 +2092,11 @@
         <f t="shared" si="1"/>
         <v>1677.2250000000001</v>
       </c>
-      <c r="F36" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G36" s="8">
+      <c r="F36" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="7">
         <f t="shared" si="8"/>
         <v>44838</v>
       </c>
@@ -2107,7 +2104,7 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="8">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
@@ -2126,7 +2123,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="6"/>
@@ -2140,11 +2137,11 @@
         <f t="shared" si="1"/>
         <v>1661.5500000000002</v>
       </c>
-      <c r="F37" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G37" s="8">
+      <c r="F37" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="7">
         <f t="shared" si="8"/>
         <v>44839</v>
       </c>
@@ -2152,7 +2149,7 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="8">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
@@ -2171,7 +2168,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="6"/>
@@ -2185,11 +2182,11 @@
         <f t="shared" si="1"/>
         <v>1645.875</v>
       </c>
-      <c r="F38" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G38" s="8">
+      <c r="F38" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="7">
         <f t="shared" si="8"/>
         <v>44840</v>
       </c>
@@ -2197,7 +2194,7 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I38" s="8">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
@@ -2215,39 +2212,42 @@
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="7">
+        <v>45</v>
+      </c>
+      <c r="C40" s="1">
         <f>SUM(K3:K38)</f>
         <v>135355.94999999998</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="7">
+        <v>46</v>
+      </c>
+      <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="7">
+        <v>44</v>
+      </c>
+      <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="7">
+        <v>50</v>
+      </c>
+      <c r="C43" s="1">
         <f>MAX(K3:K38)</f>
         <v>4389</v>
       </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C44" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LR3/table_1_57.xlsx
+++ b/LR3/table_1_57.xlsx
@@ -29,9 +29,6 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилия квартирасъёмщика</t>
-  </si>
-  <si>
     <t>Срок оплаты</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>Просрочка, дней</t>
   </si>
   <si>
-    <t>Максимальный срок просрочки, руб.</t>
-  </si>
-  <si>
     <t>Общая сумма, руб.</t>
   </si>
   <si>
@@ -176,7 +170,13 @@
     <t>Пени за 1 день, руб.</t>
   </si>
   <si>
-    <t>Максимальная сумма просрочки, руб.</t>
+    <t>Фамилия квартиросъёмщика</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
   </si>
 </sst>
 </file>
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,34 +562,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -597,7 +597,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -638,7 +638,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -683,7 +683,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
@@ -728,7 +728,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="6"/>
@@ -773,7 +773,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="6"/>
@@ -818,7 +818,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="6"/>
@@ -863,7 +863,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="6"/>
@@ -908,7 +908,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="6"/>
@@ -953,7 +953,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="6"/>
@@ -998,7 +998,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="6"/>
@@ -1043,7 +1043,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="6"/>
@@ -1088,7 +1088,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="6"/>
@@ -1133,7 +1133,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="6"/>
@@ -1178,7 +1178,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="6"/>
@@ -1223,7 +1223,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="6"/>
@@ -1268,7 +1268,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="6"/>
@@ -1313,7 +1313,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="6"/>
@@ -1358,7 +1358,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="6"/>
@@ -1403,7 +1403,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="6"/>
@@ -1448,7 +1448,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="6"/>
@@ -1493,7 +1493,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="6"/>
@@ -1538,7 +1538,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="6"/>
@@ -1583,7 +1583,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="6"/>
@@ -1628,7 +1628,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="6"/>
@@ -1673,7 +1673,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="6"/>
@@ -1718,7 +1718,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="6"/>
@@ -1763,7 +1763,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="6"/>
@@ -1808,7 +1808,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="6"/>
@@ -1853,7 +1853,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="6"/>
@@ -1898,7 +1898,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="6"/>
@@ -1943,7 +1943,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="6"/>
@@ -1988,7 +1988,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="6"/>
@@ -2033,7 +2033,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="6"/>
@@ -2078,7 +2078,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="6"/>
@@ -2123,7 +2123,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="6"/>
@@ -2168,7 +2168,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="6"/>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C40" s="1">
         <f>SUM(K3:K38)</f>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2230,16 +2230,16 @@
     </row>
     <row r="42" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_57.xlsx
+++ b/LR3/table_1_57.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Хозяин\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3728FBC3-45BC-4290-9C64-63053A91046C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F8CF649-4054-41F5-9BA3-61E7A5AFED34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{0FA2EC11-4BA8-4080-A836-9909C04E522C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0FA2EC11-4BA8-4080-A836-9909C04E522C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -168,23 +174,23 @@
     <t>Куропаткин 8</t>
   </si>
   <si>
-    <t>Куропаткин 9</t>
-  </si>
-  <si>
-    <t>Куропаткин 10</t>
-  </si>
-  <si>
-    <t>Куропаткин 11</t>
-  </si>
-  <si>
-    <t>Куропаткин 12</t>
+    <t>Санников</t>
+  </si>
+  <si>
+    <t>Ахмадуллина</t>
+  </si>
+  <si>
+    <t>Роман</t>
+  </si>
+  <si>
+    <t>Мохамед</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -197,6 +203,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -552,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFEDB43A-7E00-4476-B32F-89C95E40AD8A}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -832,7 +844,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <f t="shared" si="3"/>
+        <f>A7+1</f>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1691,7 +1703,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="4"/>
@@ -1736,7 +1748,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="4"/>
@@ -1781,7 +1793,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="4"/>
@@ -1826,7 +1838,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="4"/>
@@ -1871,7 +1883,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="4"/>
@@ -1916,7 +1928,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="4"/>
@@ -1961,7 +1973,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="4"/>
@@ -2006,7 +2018,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="4"/>
@@ -2051,7 +2063,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="4"/>
@@ -2096,7 +2108,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="4"/>
@@ -2141,7 +2153,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="4"/>
@@ -2186,7 +2198,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="4"/>
@@ -2262,6 +2274,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
